--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Vipr2</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H2">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I2">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J2">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.60156432301769</v>
+        <v>0.07178566666666666</v>
       </c>
       <c r="N2">
-        <v>6.60156432301769</v>
+        <v>0.215357</v>
       </c>
       <c r="O2">
-        <v>0.4889774041051702</v>
+        <v>0.00516242483834057</v>
       </c>
       <c r="P2">
-        <v>0.4889774041051702</v>
+        <v>0.00516242483834057</v>
       </c>
       <c r="Q2">
-        <v>8.679702474998473</v>
+        <v>0.2342453881846666</v>
       </c>
       <c r="R2">
-        <v>8.679702474998473</v>
+        <v>2.108208493662</v>
       </c>
       <c r="S2">
-        <v>0.09053140818791736</v>
+        <v>0.001823046204389379</v>
       </c>
       <c r="T2">
-        <v>0.09053140818791736</v>
+        <v>0.001823046204389379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.31479480473059</v>
+        <v>3.263122</v>
       </c>
       <c r="H3">
-        <v>1.31479480473059</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I3">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J3">
-        <v>0.1851443592850472</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.89919106484848</v>
+        <v>6.804012333333334</v>
       </c>
       <c r="N3">
-        <v>6.89919106484848</v>
+        <v>20.412037</v>
       </c>
       <c r="O3">
-        <v>0.5110225958948298</v>
+        <v>0.4893066248597758</v>
       </c>
       <c r="P3">
-        <v>0.5110225958948298</v>
+        <v>0.4893066248597758</v>
       </c>
       <c r="Q3">
-        <v>9.071020568906489</v>
+        <v>22.20232233317133</v>
       </c>
       <c r="R3">
-        <v>9.071020568906489</v>
+        <v>199.820900998542</v>
       </c>
       <c r="S3">
-        <v>0.09461295109712987</v>
+        <v>0.1727925564374763</v>
       </c>
       <c r="T3">
-        <v>0.09461295109712987</v>
+        <v>0.1727925564374763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.21924831173834</v>
+        <v>3.263122</v>
       </c>
       <c r="H4">
-        <v>4.21924831173834</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I4">
-        <v>0.5941383572027266</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J4">
-        <v>0.5941383572027266</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.60156432301769</v>
+        <v>0.029003</v>
       </c>
       <c r="N4">
-        <v>6.60156432301769</v>
+        <v>0.087009</v>
       </c>
       <c r="O4">
-        <v>0.4889774041051702</v>
+        <v>0.002085734026566003</v>
       </c>
       <c r="P4">
-        <v>0.4889774041051702</v>
+        <v>0.002085734026566003</v>
       </c>
       <c r="Q4">
-        <v>27.85363912472445</v>
+        <v>0.09464032736599999</v>
       </c>
       <c r="R4">
-        <v>27.85363912472445</v>
+        <v>0.851762946294</v>
       </c>
       <c r="S4">
-        <v>0.2905202315842996</v>
+        <v>0.0007365510626434966</v>
       </c>
       <c r="T4">
-        <v>0.2905202315842996</v>
+        <v>0.0007365510626434966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.21924831173834</v>
+        <v>3.263122</v>
       </c>
       <c r="H5">
-        <v>4.21924831173834</v>
+        <v>9.789365999999999</v>
       </c>
       <c r="I5">
-        <v>0.5941383572027266</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="J5">
-        <v>0.5941383572027266</v>
+        <v>0.3531375780718168</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.89919106484848</v>
+        <v>7.000615333333333</v>
       </c>
       <c r="N5">
-        <v>6.89919106484848</v>
+        <v>21.001846</v>
       </c>
       <c r="O5">
-        <v>0.5110225958948298</v>
+        <v>0.5034452162753175</v>
       </c>
       <c r="P5">
-        <v>0.5110225958948298</v>
+        <v>0.5034452162753175</v>
       </c>
       <c r="Q5">
-        <v>29.10940025272219</v>
+        <v>22.84386190773733</v>
       </c>
       <c r="R5">
-        <v>29.10940025272219</v>
+        <v>205.594757169636</v>
       </c>
       <c r="S5">
-        <v>0.303618125618427</v>
+        <v>0.1777854243673076</v>
       </c>
       <c r="T5">
-        <v>0.303618125618427</v>
+        <v>0.1777854243673076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.56741441541482</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H6">
-        <v>1.56741441541482</v>
+        <v>13.101932</v>
       </c>
       <c r="I6">
-        <v>0.2207172835122262</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="J6">
-        <v>0.2207172835122262</v>
+        <v>0.4726337266929886</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.60156432301769</v>
+        <v>0.07178566666666666</v>
       </c>
       <c r="N6">
-        <v>6.60156432301769</v>
+        <v>0.215357</v>
       </c>
       <c r="O6">
-        <v>0.4889774041051702</v>
+        <v>0.00516242483834057</v>
       </c>
       <c r="P6">
-        <v>0.4889774041051702</v>
+        <v>0.00516242483834057</v>
       </c>
       <c r="Q6">
-        <v>10.3473870841861</v>
+        <v>0.3135103077471111</v>
       </c>
       <c r="R6">
-        <v>10.3473870841861</v>
+        <v>2.821592769724</v>
       </c>
       <c r="S6">
-        <v>0.1079257643329533</v>
+        <v>0.002439936090117353</v>
       </c>
       <c r="T6">
-        <v>0.1079257643329533</v>
+        <v>0.002439936090117353</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.367310666666667</v>
+      </c>
+      <c r="H7">
+        <v>13.101932</v>
+      </c>
+      <c r="I7">
+        <v>0.4726337266929886</v>
+      </c>
+      <c r="J7">
+        <v>0.4726337266929886</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.804012333333334</v>
+      </c>
+      <c r="N7">
+        <v>20.412037</v>
+      </c>
+      <c r="O7">
+        <v>0.4893066248597758</v>
+      </c>
+      <c r="P7">
+        <v>0.4893066248597758</v>
+      </c>
+      <c r="Q7">
+        <v>29.71523563949822</v>
+      </c>
+      <c r="R7">
+        <v>267.437120755484</v>
+      </c>
+      <c r="S7">
+        <v>0.231262813603044</v>
+      </c>
+      <c r="T7">
+        <v>0.231262813603044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.367310666666667</v>
+      </c>
+      <c r="H8">
+        <v>13.101932</v>
+      </c>
+      <c r="I8">
+        <v>0.4726337266929886</v>
+      </c>
+      <c r="J8">
+        <v>0.4726337266929886</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.029003</v>
+      </c>
+      <c r="N8">
+        <v>0.087009</v>
+      </c>
+      <c r="O8">
+        <v>0.002085734026566003</v>
+      </c>
+      <c r="P8">
+        <v>0.002085734026566003</v>
+      </c>
+      <c r="Q8">
+        <v>0.1266651112653333</v>
+      </c>
+      <c r="R8">
+        <v>1.139986001388</v>
+      </c>
+      <c r="S8">
+        <v>0.0009857882458662629</v>
+      </c>
+      <c r="T8">
+        <v>0.0009857882458662629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.56741441541482</v>
-      </c>
-      <c r="H7">
-        <v>1.56741441541482</v>
-      </c>
-      <c r="I7">
-        <v>0.2207172835122262</v>
-      </c>
-      <c r="J7">
-        <v>0.2207172835122262</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.89919106484848</v>
-      </c>
-      <c r="N7">
-        <v>6.89919106484848</v>
-      </c>
-      <c r="O7">
-        <v>0.5110225958948298</v>
-      </c>
-      <c r="P7">
-        <v>0.5110225958948298</v>
-      </c>
-      <c r="Q7">
-        <v>10.81389152974463</v>
-      </c>
-      <c r="R7">
-        <v>10.81389152974463</v>
-      </c>
-      <c r="S7">
-        <v>0.112791519179273</v>
-      </c>
-      <c r="T7">
-        <v>0.112791519179273</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.367310666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.101932</v>
+      </c>
+      <c r="I9">
+        <v>0.4726337266929886</v>
+      </c>
+      <c r="J9">
+        <v>0.4726337266929886</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.000615333333333</v>
+      </c>
+      <c r="N9">
+        <v>21.001846</v>
+      </c>
+      <c r="O9">
+        <v>0.5034452162753175</v>
+      </c>
+      <c r="P9">
+        <v>0.5034452162753175</v>
+      </c>
+      <c r="Q9">
+        <v>30.57386201849689</v>
+      </c>
+      <c r="R9">
+        <v>275.164758166472</v>
+      </c>
+      <c r="S9">
+        <v>0.2379451887539609</v>
+      </c>
+      <c r="T9">
+        <v>0.2379451887539609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.609937666666666</v>
+      </c>
+      <c r="H10">
+        <v>4.829813</v>
+      </c>
+      <c r="I10">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="J10">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07178566666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.215357</v>
+      </c>
+      <c r="O10">
+        <v>0.00516242483834057</v>
+      </c>
+      <c r="P10">
+        <v>0.00516242483834057</v>
+      </c>
+      <c r="Q10">
+        <v>0.1155704486934444</v>
+      </c>
+      <c r="R10">
+        <v>1.040134038241</v>
+      </c>
+      <c r="S10">
+        <v>0.0008994425438338379</v>
+      </c>
+      <c r="T10">
+        <v>0.0008994425438338379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.609937666666666</v>
+      </c>
+      <c r="H11">
+        <v>4.829813</v>
+      </c>
+      <c r="I11">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="J11">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.804012333333334</v>
+      </c>
+      <c r="N11">
+        <v>20.412037</v>
+      </c>
+      <c r="O11">
+        <v>0.4893066248597758</v>
+      </c>
+      <c r="P11">
+        <v>0.4893066248597758</v>
+      </c>
+      <c r="Q11">
+        <v>10.95403573989789</v>
+      </c>
+      <c r="R11">
+        <v>98.58632165908099</v>
+      </c>
+      <c r="S11">
+        <v>0.08525125481925556</v>
+      </c>
+      <c r="T11">
+        <v>0.08525125481925556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.609937666666666</v>
+      </c>
+      <c r="H12">
+        <v>4.829813</v>
+      </c>
+      <c r="I12">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="J12">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.029003</v>
+      </c>
+      <c r="N12">
+        <v>0.087009</v>
+      </c>
+      <c r="O12">
+        <v>0.002085734026566003</v>
+      </c>
+      <c r="P12">
+        <v>0.002085734026566003</v>
+      </c>
+      <c r="Q12">
+        <v>0.04669302214633333</v>
+      </c>
+      <c r="R12">
+        <v>0.420237199317</v>
+      </c>
+      <c r="S12">
+        <v>0.0003633947180562434</v>
+      </c>
+      <c r="T12">
+        <v>0.0003633947180562434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.609937666666666</v>
+      </c>
+      <c r="H13">
+        <v>4.829813</v>
+      </c>
+      <c r="I13">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="J13">
+        <v>0.1742286952351946</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.000615333333333</v>
+      </c>
+      <c r="N13">
+        <v>21.001846</v>
+      </c>
+      <c r="O13">
+        <v>0.5034452162753175</v>
+      </c>
+      <c r="P13">
+        <v>0.5034452162753175</v>
+      </c>
+      <c r="Q13">
+        <v>11.27055431497755</v>
+      </c>
+      <c r="R13">
+        <v>101.434988834798</v>
+      </c>
+      <c r="S13">
+        <v>0.0877146031540489</v>
+      </c>
+      <c r="T13">
+        <v>0.0877146031540489</v>
       </c>
     </row>
   </sheetData>
